--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,34 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Docs_Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E52D85-522A-4CDA-AEEE-140208B26FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8AAEC1-9BB5-4DEF-B5E7-6A6E216E9DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="554" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Career PATH" sheetId="1" r:id="rId1"/>
-    <sheet name="Professional Scrum" sheetId="34" r:id="rId2"/>
-    <sheet name="Scrum Master" sheetId="33" r:id="rId3"/>
-    <sheet name="JAVA" sheetId="8" r:id="rId4"/>
-    <sheet name="NODE" sheetId="7" r:id="rId5"/>
-    <sheet name="Python" sheetId="14" r:id="rId6"/>
-    <sheet name="Oracle_Apex" sheetId="15" r:id="rId7"/>
-    <sheet name="Oracle" sheetId="11" r:id="rId8"/>
-    <sheet name="mySQL" sheetId="12" r:id="rId9"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId10"/>
-    <sheet name="GIT" sheetId="10" r:id="rId11"/>
-    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId12"/>
-    <sheet name="React" sheetId="13" r:id="rId13"/>
-    <sheet name="CSS" sheetId="4" r:id="rId14"/>
-    <sheet name="HTML" sheetId="2" r:id="rId15"/>
-    <sheet name="Angular" sheetId="9" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
-    <sheet name="API_Promise" sheetId="18" r:id="rId18"/>
-    <sheet name="API_Promise2" sheetId="19" r:id="rId19"/>
-    <sheet name="API+Observables" sheetId="20" r:id="rId20"/>
+    <sheet name="Career PATH_Arranged" sheetId="35" r:id="rId1"/>
+    <sheet name="Career PATH" sheetId="1" r:id="rId2"/>
+    <sheet name="Professional Scrum" sheetId="34" r:id="rId3"/>
+    <sheet name="Scrum Master" sheetId="33" r:id="rId4"/>
+    <sheet name="JAVA" sheetId="8" r:id="rId5"/>
+    <sheet name="NODE" sheetId="7" r:id="rId6"/>
+    <sheet name="Python" sheetId="14" r:id="rId7"/>
+    <sheet name="Oracle_Apex" sheetId="15" r:id="rId8"/>
+    <sheet name="Oracle" sheetId="11" r:id="rId9"/>
+    <sheet name="mySQL" sheetId="12" r:id="rId10"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId11"/>
+    <sheet name="GIT" sheetId="10" r:id="rId12"/>
+    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId13"/>
+    <sheet name="React" sheetId="13" r:id="rId14"/>
+    <sheet name="CSS" sheetId="4" r:id="rId15"/>
+    <sheet name="HTML" sheetId="2" r:id="rId16"/>
+    <sheet name="Angular" sheetId="9" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId18"/>
+    <sheet name="API_Promise" sheetId="18" r:id="rId19"/>
+    <sheet name="API_Promise2" sheetId="19" r:id="rId20"/>
+    <sheet name="API+Observables" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH'!$A$3:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_Arranged'!$A$3:$E$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="221">
   <si>
     <t>SR#</t>
   </si>
@@ -250,9 +252,6 @@
   </si>
   <si>
     <t>Python</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
   </si>
   <si>
     <t>Angular</t>
@@ -2258,12 +2257,60 @@
   <si>
     <t>https://app.pluralsight.com/paths/skills/introduction-to-professional-scrum</t>
   </si>
+  <si>
+    <t>JavaScript Path</t>
+  </si>
+  <si>
+    <t>Basics of Programming with JavaScript</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/javascript-programming-basics/table-of-contents</t>
+  </si>
+  <si>
+    <t>Essential Knockout and JavaScript Tips</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/knockout-tips/table-of-contents</t>
+  </si>
+  <si>
+    <t>Code School: JavaScript Best Practices</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/code-school-javascript-best-practices/table-of-contents</t>
+  </si>
+  <si>
+    <t>Master JavaScript</t>
+  </si>
+  <si>
+    <t>https://learn.pluralsight.com/programs/dev/javascript</t>
+  </si>
+  <si>
+    <t>Learning To Program - Part 1: Getting Started</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/learning-programming-javascript/table-of-contents</t>
+  </si>
+  <si>
+    <t>Learning To Program - Part 2: Abstractions</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/learning-programming-abstractions-python/table-of-contents</t>
+  </si>
+  <si>
+    <t>Building a JavaScript Development Environment</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/javascript-development-environment/table-of-contents</t>
+  </si>
+  <si>
+    <t>Passed…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2416,6 +2463,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2501,7 +2555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2525,44 +2579,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2581,15 +2616,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2680,9 +2706,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,6 +2726,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3258,409 +3338,528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB7C02-07A8-4D5B-B7A9-996091B89DD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B332C83-FFB7-4B56-A17D-713BA207E951}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39" style="20" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="68" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70">
+        <v>1</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="77"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="B5" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="78"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="B9" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="78"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="78"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="78"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="78"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="B21" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="78"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="31" t="s">
+      <c r="B22" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="78"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C23" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="31" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="78"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22" t="s">
+      <c r="D24" s="76"/>
+      <c r="E24" s="78"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D25" s="76"/>
+      <c r="E25" s="78"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="78"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>1</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>2</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="33" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>1</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="30" t="s">
+      <c r="B31" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="24"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="24"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="24"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="24"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="21" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B32" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:H17" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <autoFilter ref="A3:E27" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{C535317E-26BF-42E7-B3F5-5FCC6355D4B4}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{101ABAD9-A210-46E9-BD81-DA680F6FF662}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{426BCB35-8C50-46C0-9F48-82DB1B8CEC52}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{3E6E67D1-E29E-4250-8B4F-1E73BFE6F3D9}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{1D7B0FF2-83E9-431C-81D2-C347E5CD65DF}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{6539E2EF-FEE1-49D2-AAC3-D362C55280DD}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{BB2635AF-1855-4326-9689-82A8584A46E1}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{06AED128-7AC5-4C87-AFFA-BFD77E3B4B70}"/>
-    <hyperlink ref="B16" location="HTML!A1" display="HTML" xr:uid="{B2C8483A-9FA1-4847-8654-C814605374C1}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{EFC56957-98D8-4A3F-8715-3BA12A0E43C5}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{F7573E37-1E5B-4DA3-B462-35619F825A5C}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{6045CEEB-EC7C-4780-AD74-847504F5547A}"/>
-    <hyperlink ref="B10" location="JavaScript!A1" display="JavaScript Path" xr:uid="{61113615-F1BB-438A-8154-08D4F72486F7}"/>
-    <hyperlink ref="B15" location="CSS!A1" display="CSS Path" xr:uid="{8C87241D-4C5F-4669-88AC-4FF0EA6EF52C}"/>
-    <hyperlink ref="B5" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{6A52AD11-5D0B-4798-9B09-16DD9A83004F}"/>
-    <hyperlink ref="B4" location="JAVA!A1" display="Java Path" xr:uid="{CDCF1D47-BB2A-4EFF-9A93-7A59549DB9EE}"/>
-    <hyperlink ref="B11" location="Angular!A1" display="Angular Path" xr:uid="{B7E35D6B-0410-4E5C-918D-033AE5362040}"/>
-    <hyperlink ref="B12" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{265888DD-B8D2-432B-B67F-A94AAE67585C}"/>
-    <hyperlink ref="B9" location="Oracle!A1" display="Oracle" xr:uid="{D375FDE9-F585-4FBA-B082-0A824CF6E1D2}"/>
-    <hyperlink ref="B8" location="mySQL!A1" display="mySQL" xr:uid="{33F593FA-04B5-4D24-BCF2-81DF9EDC7D7F}"/>
-    <hyperlink ref="B14" location="React!A1" display="React path" xr:uid="{00FBC0DF-238B-4DEA-8B2F-E4503C8A3E59}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{E199D55F-40CD-4214-A495-30ACC68BDDDF}"/>
-    <hyperlink ref="B6" location="Python!A1" display="Python Path" xr:uid="{7D2AB937-E60E-4F50-848A-D235FF1E3A32}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{21D8FD82-CE5E-4CF0-B3F1-739A6EB3DD52}"/>
-    <hyperlink ref="B7" location="Oracle_Apex!A1" display="Oracle APEX" xr:uid="{99A8871A-35F1-4B5F-A08B-62E31266B8BA}"/>
-    <hyperlink ref="B13" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{4DD60EA1-7E35-4161-8A6E-382DD256E589}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{D2A3E277-9FE0-48D8-BA95-827DBC236E38}"/>
-    <hyperlink ref="B17" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{7240D223-15FC-45EE-9E3A-9B8908130345}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{095E8D3B-1363-488A-8B7C-617A45686604}"/>
-    <hyperlink ref="B18" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{886D537C-A45A-404C-BB05-10F0E27873C1}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{2310128F-5B6E-4D76-916B-4F9216A64190}"/>
-    <hyperlink ref="B19" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{B412A61E-A6A3-430D-8A36-914377A0A709}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{9830F7C7-C433-4371-91AD-5E0F258200AD}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{5DCAEC20-E57B-4063-9204-F532593D156C}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{8E7B6496-7698-4F07-831C-7722C6B16BD9}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{21958984-6DE2-4A2F-B0FD-D30C70C048E6}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{61A9099E-ACF3-4F81-9750-46E3970BA392}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{D187D19C-04D8-457F-B79D-53248E9FF77C}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{2277B379-9CF5-4605-AA4F-C397B701B871}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{F59B0427-3784-4BBE-9196-4272C8E53313}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{BCC50610-C2E3-4D58-8F38-20C4DC9AFB4E}"/>
+    <hyperlink ref="C25" r:id="rId10" xr:uid="{73BF17D1-CF22-4005-86C4-7A6C131A7EDA}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{A804E79A-5B17-4434-B71F-F158FBF67800}"/>
+    <hyperlink ref="C22" r:id="rId12" xr:uid="{D2E7D347-D406-46A5-ADB1-0EBE1A007438}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{5B564626-F7FF-435E-B730-30B6BB3BFD67}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{D70ED680-8A53-4694-9AC5-750074877C3C}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{FDCF9498-C349-49AD-8BE3-E842F327F6DA}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{596F354E-D91F-45B8-96A0-C9CBCD711300}"/>
+    <hyperlink ref="C6" r:id="rId17" xr:uid="{F76BDB5F-1739-4C3B-841E-A73C46E72EAE}"/>
+    <hyperlink ref="C7" r:id="rId18" xr:uid="{E2934239-DE8C-4E7F-BE2C-BD3BA66AEF7D}"/>
+    <hyperlink ref="C8" r:id="rId19" xr:uid="{05F7DA0F-384B-4E2C-9CBA-7ABB6587C7FB}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{9CE85E94-C3ED-46E3-B5B9-1C319B2F8AAC}"/>
+    <hyperlink ref="C11" r:id="rId21" xr:uid="{869C6FCC-83F8-43C8-B2BE-9387C49DC395}"/>
+    <hyperlink ref="C10" r:id="rId22" xr:uid="{D95CE4C3-22F3-4362-9BB1-25FFB5F4DF34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{E24D082F-65BA-4F5C-BAB7-0599305D0FF8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3681,14 +3880,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3730,7 +3929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3753,14 +3952,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3802,7 +4001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3823,14 +4022,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3872,7 +4071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3893,14 +4092,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3942,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3963,14 +4162,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4012,7 +4211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -4020,312 +4219,312 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="2" max="3" width="19.140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="28" style="35" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="3" width="19.140625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="28" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="38" t="s">
+      <c r="E5" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="35" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="41" t="s">
+      <c r="E11" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="D12" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E12" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D12" s="41" t="s">
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="D14" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="E14" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D15" s="31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D14" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D15" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="44" t="s">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E18" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
+    <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="C19" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="D19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="35" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E20" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
+    <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="D22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
+    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D23" s="35" t="s">
+      <c r="E24" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="36" t="s">
+      <c r="D25" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="35" t="s">
+    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="D27" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="36" t="s">
+      <c r="E27" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="s">
+    <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C28" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="D28" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="36" t="s">
+    <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E29" s="24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E29" s="36" t="s">
+    <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="E30" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="E30" s="36" t="s">
+    <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E31" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E31" s="36" t="s">
+    <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D32" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="35" t="s">
+      <c r="E32" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4341,7 +4540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4353,248 +4552,248 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
-    <col min="2" max="2" width="41.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="9.140625" style="47"/>
+    <col min="2" max="2" width="41.42578125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="E2" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>1</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61" t="s">
+      <c r="D4" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C5" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D7" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="D9" s="50" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="62" t="s">
+      <c r="E9" s="40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D10" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E10" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D10" s="62" t="s">
+    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="D11" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="D14" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="C16" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="D19" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="D11" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="D14" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="C16" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D18" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="D19" s="62" t="s">
+      <c r="E19" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="62" t="s">
+    </row>
+    <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="D20" s="50" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="E20" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="52" t="s">
+    </row>
+    <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D21" s="50" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D21" s="62" t="s">
+      <c r="E21" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="52" t="s">
+    </row>
+    <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="D22" s="50" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="D22" s="62" t="s">
+      <c r="E22" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="52" t="s">
+    </row>
+    <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="E23" s="40" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="E23" s="52" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="62" t="s">
+    <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C25" s="50" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C25" s="62" t="s">
+      <c r="D25" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>196</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4625,7 +4824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4641,7 +4840,500 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB7C02-07A8-4D5B-B7A9-996091B89DD9}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39" style="69" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>1</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="67"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="67"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="67"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="67"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:H24" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{C535317E-26BF-42E7-B3F5-5FCC6355D4B4}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{101ABAD9-A210-46E9-BD81-DA680F6FF662}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{426BCB35-8C50-46C0-9F48-82DB1B8CEC52}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{3E6E67D1-E29E-4250-8B4F-1E73BFE6F3D9}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{1D7B0FF2-83E9-431C-81D2-C347E5CD65DF}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{6539E2EF-FEE1-49D2-AAC3-D362C55280DD}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{BB2635AF-1855-4326-9689-82A8584A46E1}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{06AED128-7AC5-4C87-AFFA-BFD77E3B4B70}"/>
+    <hyperlink ref="B23" location="HTML!A1" display="HTML" xr:uid="{B2C8483A-9FA1-4847-8654-C814605374C1}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{EFC56957-98D8-4A3F-8715-3BA12A0E43C5}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{F7573E37-1E5B-4DA3-B462-35619F825A5C}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{6045CEEB-EC7C-4780-AD74-847504F5547A}"/>
+    <hyperlink ref="B10" location="JavaScript!A1" display="JavaScript Path" xr:uid="{61113615-F1BB-438A-8154-08D4F72486F7}"/>
+    <hyperlink ref="B22" location="CSS!A1" display="CSS Path" xr:uid="{8C87241D-4C5F-4669-88AC-4FF0EA6EF52C}"/>
+    <hyperlink ref="B5" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{6A52AD11-5D0B-4798-9B09-16DD9A83004F}"/>
+    <hyperlink ref="B4" location="JAVA!A1" display="Java Path" xr:uid="{CDCF1D47-BB2A-4EFF-9A93-7A59549DB9EE}"/>
+    <hyperlink ref="B18" location="Angular!A1" display="Angular Path" xr:uid="{B7E35D6B-0410-4E5C-918D-033AE5362040}"/>
+    <hyperlink ref="B19" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{265888DD-B8D2-432B-B67F-A94AAE67585C}"/>
+    <hyperlink ref="B9" location="Oracle!A1" display="Oracle" xr:uid="{D375FDE9-F585-4FBA-B082-0A824CF6E1D2}"/>
+    <hyperlink ref="B8" location="mySQL!A1" display="mySQL" xr:uid="{33F593FA-04B5-4D24-BCF2-81DF9EDC7D7F}"/>
+    <hyperlink ref="B21" location="React!A1" display="React path" xr:uid="{00FBC0DF-238B-4DEA-8B2F-E4503C8A3E59}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{E199D55F-40CD-4214-A495-30ACC68BDDDF}"/>
+    <hyperlink ref="B6" location="Python!A1" display="Python Path" xr:uid="{7D2AB937-E60E-4F50-848A-D235FF1E3A32}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{21D8FD82-CE5E-4CF0-B3F1-739A6EB3DD52}"/>
+    <hyperlink ref="B7" location="Oracle_Apex!A1" display="Oracle APEX" xr:uid="{99A8871A-35F1-4B5F-A08B-62E31266B8BA}"/>
+    <hyperlink ref="B20" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{4DD60EA1-7E35-4161-8A6E-382DD256E589}"/>
+    <hyperlink ref="C24" r:id="rId14" xr:uid="{D2A3E277-9FE0-48D8-BA95-827DBC236E38}"/>
+    <hyperlink ref="B24" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{7240D223-15FC-45EE-9E3A-9B8908130345}"/>
+    <hyperlink ref="C25" r:id="rId15" xr:uid="{095E8D3B-1363-488A-8B7C-617A45686604}"/>
+    <hyperlink ref="B25" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{886D537C-A45A-404C-BB05-10F0E27873C1}"/>
+    <hyperlink ref="C26" r:id="rId16" xr:uid="{2310128F-5B6E-4D76-916B-4F9216A64190}"/>
+    <hyperlink ref="B26" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{B412A61E-A6A3-430D-8A36-914377A0A709}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{4FDEF4EF-B349-4E8F-8131-B1C53C95911F}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{271A67A4-CF1B-432C-A53B-77AAD7A54F28}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{37628DBC-F154-4A94-B166-9573DF1F2C72}"/>
+    <hyperlink ref="C14" r:id="rId20" xr:uid="{073716C4-B208-4CDB-8EC1-A5BDDAE824E8}"/>
+    <hyperlink ref="C16" r:id="rId21" xr:uid="{60926355-5641-4F41-A7AD-C5A7C2F74E4A}"/>
+    <hyperlink ref="C15" r:id="rId22" xr:uid="{503304F9-E770-4052-9E09-C6C94A84FECE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4655,74 +5347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{506261BB-1887-4269-878D-19C280DF4387}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4739,6 +5364,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{506261BB-1887-4269-878D-19C280DF4387}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600B75A-1ED1-437D-9B1E-4EB6353449BE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -4753,17 +5445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4789,8 +5481,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>64</v>
+      <c r="A3" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4805,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77D0AC-A7B6-4319-A90C-CAC41021F832}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -4815,7 +5507,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
@@ -4825,17 +5517,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4861,8 +5553,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>64</v>
+      <c r="A3" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +5569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09BD98-79D8-450C-972D-16EC9C4FC717}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -4891,127 +5583,127 @@
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="49" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="49" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="49" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="49" t="s">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="G9" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="49" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="49" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="49" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="49" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="49" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="49" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="49" t="s">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="49" t="s">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="49" t="s">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="37" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5047,14 +5739,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5096,7 +5788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC297CD3-0B1F-4BB7-8CC6-619A9FF0CD07}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5117,14 +5809,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5166,7 +5858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCCAF4-6438-4808-B747-7037D39019AA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5187,14 +5879,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5236,89 +5928,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{E24D082F-65BA-4F5C-BAB7-0599305D0FF8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5545,14 +6167,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -5565,6 +6179,14 @@
     <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Docs_Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8AAEC1-9BB5-4DEF-B5E7-6A6E216E9DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AA063-77B6-41B1-9DD5-713E795CB24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="554" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="554" activeTab="1" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Career PATH_Arranged" sheetId="35" r:id="rId1"/>
@@ -2706,27 +2706,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2783,6 +2762,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3344,372 +3344,372 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39" style="68" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="61" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="68" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="63">
         <v>1</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="67" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="67" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="78"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="67" t="s">
         <v>210</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="67" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="78"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="67" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="78"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="67" t="s">
         <v>214</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="78"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="67" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="65" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="78"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="78"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="78"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="65" t="s">
         <v>199</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="78"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="65" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="65" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="78"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="78"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="78"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="78"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="78"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="78"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -3723,10 +3723,10 @@
       <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3746,7 +3746,7 @@
       <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3810,14 +3810,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3880,14 +3880,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3933,9 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3952,14 +3950,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4022,14 +4020,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4092,14 +4090,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4162,14 +4160,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4233,12 +4231,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
@@ -4265,11 +4263,11 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="39" t="s">
         <v>149</v>
       </c>
@@ -4565,12 +4563,12 @@
       <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4596,11 +4594,11 @@
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="48" t="s">
         <v>150</v>
       </c>
@@ -4677,11 +4675,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="48" t="s">
         <v>150</v>
       </c>
@@ -4847,15 +4845,15 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39" style="69" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="62" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
@@ -4864,35 +4862,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -4913,10 +4911,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -4925,7 +4923,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4937,10 +4935,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -4949,7 +4947,7 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -4976,7 +4974,7 @@
       <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -4985,10 +4983,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -4997,7 +4995,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="56" t="s">
         <v>206</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -5009,7 +5007,7 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="56" t="s">
         <v>208</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5021,7 +5019,7 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="56" t="s">
         <v>210</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -5033,7 +5031,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="56" t="s">
         <v>212</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5045,7 +5043,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="56" t="s">
         <v>218</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -5057,7 +5055,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="56" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -5069,7 +5067,7 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="56" t="s">
         <v>216</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -5096,7 +5094,7 @@
       <c r="B19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -5108,7 +5106,7 @@
       <c r="B20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -5120,7 +5118,7 @@
       <c r="B21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -5129,10 +5127,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -5155,7 +5153,7 @@
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="59" t="s">
         <v>199</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -5167,7 +5165,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="59" t="s">
         <v>200</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -5179,7 +5177,7 @@
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="59" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -5191,42 +5189,42 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="67"/>
+      <c r="B27" s="60"/>
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="67"/>
+      <c r="B28" s="60"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="60"/>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="67"/>
+      <c r="B30" s="60"/>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -5244,10 +5242,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -5256,7 +5254,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -5265,7 +5263,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -5274,7 +5272,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -5381,14 +5379,14 @@
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5448,14 +5446,14 @@
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5520,14 +5518,14 @@
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5590,13 +5588,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5739,14 +5737,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5809,14 +5807,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5879,14 +5877,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5929,21 +5927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -6166,7 +6149,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
+    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6183,29 +6200,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
-    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>